--- a/results/mod1.gndr.eff.MN.xlsx
+++ b/results/mod1.gndr.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.510220779038872</v>
+        <v>-0.510214532938617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0541923602794058</v>
+        <v>0.0541922131767833</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.616435853423726</v>
+        <v>-0.616429319007629</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.404005704654017</v>
+        <v>-0.403999746869605</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.41499459348639</v>
+        <v>-9.41490489185631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00000000000000000000473106746141982</v>
+        <v>0.00000000000000000000473510885655765</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.155330857134985</v>
+        <v>-0.155341137897844</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12360414294756</v>
+        <v>0.123603855539951</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.397590525652143</v>
+        <v>-0.39760024310644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0869288113821735</v>
+        <v>0.0869179673107527</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.25668002245592</v>
+        <v>-1.2567661196267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.208869524956409</v>
+        <v>0.20883833772504</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.667385869993788</v>
+        <v>0.667387106930062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0537168032110615</v>
+        <v>0.0537167332415345</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>0.562102870335481</v>
+        <v>0.562104244409509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.772668869652094</v>
+        <v>0.772669969450615</v>
       </c>
       <c r="G4" t="n">
-        <v>12.424154642478</v>
+        <v>12.4241938527645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0000000000000000000000000000000000193258487012968</v>
+        <v>0.0000000000000000000000000000000000193163761054665</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00183423381993164</v>
+        <v>-0.00183143609360135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0458773940855089</v>
+        <v>0.0458772681854522</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09175227393208</v>
+        <v>-0.0917492294461729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0880838062922167</v>
+        <v>0.0880863572589702</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0399812120216089</v>
+        <v>-0.0399203388963362</v>
       </c>
       <c r="H5" t="n">
-        <v>0.968108104950138</v>
+        <v>0.968156635932208</v>
       </c>
     </row>
   </sheetData>
